--- a/svmx/test_lab/test_cases/backOffice/bo_excleData/SFMSearchDatasheet.xlsx
+++ b/svmx/test_lab/test_cases/backOffice/bo_excleData/SFMSearchDatasheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanarao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/sahi_pro/userdata/scripts/Sahi_Project/svmx/test_lab/test_cases/backOffice/bo_excleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,154 +27,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>CreateWorkOrder</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>SVMXC__Service_Order__c  WO = new SVMXC__Service_Order__c ( SVMXC__Company__c ='"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>+ $Account2 +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>"', SVMXC__Product__c = '"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>+$Product+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>"' , SVMXC__Group_Member__c = '"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>+$Technician+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>"' ,SVMXC__Component__c = '"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>+$Component+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>"',SVMXC__Order_Status__c = '"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>+$OrderStatus+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>"' , SVMXC__Closed_On__c = "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>+$Closedon+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>",SVMXC__Country__c = 'United States', SVMXC__Sub_Status__c = 'Resolved', SVMXC__Priority__c = 'High', SVMXC__Site__c = '"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>+$Site+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>"', SVMXC__Scheduled_Date__c = Date.valueOf('"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>+$ScheduledDate+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3933FF"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>"') );insert WO;</t>
-    </r>
+    <t>fetchwo</t>
+  </si>
+  <si>
+    <t>Select Name , Id from SVMXC__Service_Order__c where Createdby.Id = '005q0000003GGfP' Order by CreatedDate DESC Limit 1</t>
+  </si>
+  <si>
+    <t>SVMXC__Service_Order__c WO = new SVMXC__Service_Order__c ( SVMXC__Company__c = '001q000000kxZfw', SVMXC__Order_Status__c = 'Open' ,SVMXC__Country__c = 'United States', SVMXC__Sub_Status__c = 'Resolved', SVMXC__Priority__c = 'High');insert WO;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,12 +60,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF931A68"/>
-      <name val="Monaco"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Monaco"/>
     </font>
   </fonts>
@@ -218,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -503,26 +372,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="110.83203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="63.83203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/svmx/test_lab/test_cases/backOffice/bo_excleData/SFMSearchDatasheet.xlsx
+++ b/svmx/test_lab/test_cases/backOffice/bo_excleData/SFMSearchDatasheet.xlsx
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>CreateWorkOrder</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>fetchwo</t>
   </si>
@@ -39,13 +36,22 @@
   </si>
   <si>
     <t>SVMXC__Service_Order__c WO = new SVMXC__Service_Order__c ( SVMXC__Company__c = '001q000000kxZfw', SVMXC__Order_Status__c = 'Open' ,SVMXC__Country__c = 'United States', SVMXC__Sub_Status__c = 'Resolved', SVMXC__Priority__c = 'High');insert WO;</t>
+  </si>
+  <si>
+    <t>CreateWorkOrderOpen</t>
+  </si>
+  <si>
+    <t>SVMXC__Service_Order__c WO = new SVMXC__Service_Order__c ( SVMXC__Company__c = '001q000000kxZfw', SVMXC__Order_Status__c = 'Canceled' ,SVMXC__Country__c = 'United States', SVMXC__Sub_Status__c = 'Resolved', SVMXC__Priority__c = 'High');insert WO;</t>
+  </si>
+  <si>
+    <t>CreateWorkOrderCanceled</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,6 +68,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Monaco"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,8 +103,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -96,7 +120,9 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,36 +398,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="110.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="63.83203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="61" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/svmx/test_lab/test_cases/backOffice/bo_excleData/SFMSearchDatasheet.xlsx
+++ b/svmx/test_lab/test_cases/backOffice/bo_excleData/SFMSearchDatasheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>fetchwo</t>
   </si>
@@ -45,6 +45,48 @@
   </si>
   <si>
     <t>CreateWorkOrderCanceled</t>
+  </si>
+  <si>
+    <t>CreateAccount</t>
+  </si>
+  <si>
+    <t>Account  acc = New Account(Name = 'Account Automation 1', Type = 'Analyst');insert acc ;</t>
+  </si>
+  <si>
+    <t>fetchaccount</t>
+  </si>
+  <si>
+    <t>Select Name , Id from Account where Name = 'Account Automation 1' AND Createdby.Id = '005q0000003GGfP' Order by CreatedDate DESC Limit 1</t>
+  </si>
+  <si>
+    <t>CreateServiceContract</t>
+  </si>
+  <si>
+    <t>FetchServiceContract</t>
+  </si>
+  <si>
+    <t>SVMXC__Service_Contract__c service_contract = New SVMXC__Service_Contract__c (Name = 'SCON RS_1022', SVMXC__Active__c = true , SVMXC__All_Contacts_Covered__c = true , SVMXC__Company__c = '001q000000kxZfw');insert service_contract;</t>
+  </si>
+  <si>
+    <t>Select Name , Id from SVMXC__Service_Contract__c where Name = 'SCON RS_1022' AND Createdby.Id = '005q0000003GGfP' Order by CreatedDate DESC Limit 1</t>
+  </si>
+  <si>
+    <t>SVMXC</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>001q000000kxZfw</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>005q0000003GGfP</t>
+  </si>
+  <si>
+    <t>OrgDetails</t>
   </si>
 </sst>
 </file>
@@ -103,12 +145,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -119,10 +193,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -409,10 +518,17 @@
     <col min="1" max="1" width="110.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="63.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="61" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="66" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="78.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="81.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.1640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -422,8 +538,29 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -432,6 +569,27 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
